--- a/excel_read_write/people_read.xlsx
+++ b/excel_read_write/people_read.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -31,19 +31,29 @@
     <t xml:space="preserve">IsMale</t>
   </si>
   <si>
+    <t xml:space="preserve">CreatedAt</t>
+  </si>
+  <si>
     <t xml:space="preserve">TungDT</t>
   </si>
   <si>
+    <t xml:space="preserve">1991-08-20T01:12:23Z</t>
+  </si>
+  <si>
     <t xml:space="preserve">LanDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1992-08-20T11:33:55Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -117,7 +127,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -127,6 +137,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -147,15 +161,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -168,10 +184,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>71.9</v>
@@ -180,10 +200,13 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>50</v>
@@ -191,6 +214,9 @@
       <c r="C3" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
